--- a/xlsx/马来西亚_intext.xlsx
+++ b/xlsx/马来西亚_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2407">
   <si>
     <t>马来西亚</t>
   </si>
@@ -29,7 +29,7 @@
     <t>马来西亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_行政_马来西亚</t>
+    <t>体育运动_体育运动_体育_马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
@@ -3678,6 +3678,12 @@
   </si>
   <si>
     <t>马来西亚政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/OpenStreetMap</t>
+  </si>
+  <si>
+    <t>OpenStreetMap</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WikiMapia</t>
@@ -7578,7 +7584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1304"/>
+  <dimension ref="A1:I1305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12823,7 +12829,7 @@
         <v>338</v>
       </c>
       <c r="G181" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -14360,7 +14366,7 @@
         <v>440</v>
       </c>
       <c r="G234" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -26830,7 +26836,7 @@
         <v>1228</v>
       </c>
       <c r="G664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H664" t="s">
         <v>4</v>
@@ -26859,7 +26865,7 @@
         <v>1230</v>
       </c>
       <c r="G665" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H665" t="s">
         <v>4</v>
@@ -26940,13 +26946,13 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>671</v>
+        <v>1235</v>
       </c>
       <c r="F668" t="s">
-        <v>672</v>
+        <v>1236</v>
       </c>
       <c r="G668" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
@@ -26969,13 +26975,13 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1235</v>
+        <v>671</v>
       </c>
       <c r="F669" t="s">
-        <v>1236</v>
+        <v>672</v>
       </c>
       <c r="G669" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H669" t="s">
         <v>4</v>
@@ -26998,13 +27004,13 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>719</v>
+        <v>1237</v>
       </c>
       <c r="F670" t="s">
-        <v>720</v>
+        <v>1238</v>
       </c>
       <c r="G670" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H670" t="s">
         <v>4</v>
@@ -27027,13 +27033,13 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1237</v>
+        <v>719</v>
       </c>
       <c r="F671" t="s">
-        <v>1238</v>
+        <v>720</v>
       </c>
       <c r="G671" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H671" t="s">
         <v>4</v>
@@ -27056,13 +27062,13 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>267</v>
+        <v>1239</v>
       </c>
       <c r="F672" t="s">
-        <v>268</v>
+        <v>1240</v>
       </c>
       <c r="G672" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H672" t="s">
         <v>4</v>
@@ -27085,10 +27091,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1239</v>
+        <v>267</v>
       </c>
       <c r="F673" t="s">
-        <v>1240</v>
+        <v>268</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -27149,7 +27155,7 @@
         <v>1244</v>
       </c>
       <c r="G675" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H675" t="s">
         <v>4</v>
@@ -27172,13 +27178,13 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>321</v>
+        <v>1245</v>
       </c>
       <c r="F676" t="s">
-        <v>322</v>
+        <v>1246</v>
       </c>
       <c r="G676" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H676" t="s">
         <v>4</v>
@@ -27201,13 +27207,13 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1245</v>
+        <v>321</v>
       </c>
       <c r="F677" t="s">
-        <v>1246</v>
+        <v>322</v>
       </c>
       <c r="G677" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H677" t="s">
         <v>4</v>
@@ -27236,7 +27242,7 @@
         <v>1248</v>
       </c>
       <c r="G678" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H678" t="s">
         <v>4</v>
@@ -27265,7 +27271,7 @@
         <v>1250</v>
       </c>
       <c r="G679" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H679" t="s">
         <v>4</v>
@@ -27294,7 +27300,7 @@
         <v>1252</v>
       </c>
       <c r="G680" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H680" t="s">
         <v>4</v>
@@ -27323,7 +27329,7 @@
         <v>1254</v>
       </c>
       <c r="G681" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H681" t="s">
         <v>4</v>
@@ -27352,7 +27358,7 @@
         <v>1256</v>
       </c>
       <c r="G682" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H682" t="s">
         <v>4</v>
@@ -27381,7 +27387,7 @@
         <v>1258</v>
       </c>
       <c r="G683" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H683" t="s">
         <v>4</v>
@@ -27410,7 +27416,7 @@
         <v>1260</v>
       </c>
       <c r="G684" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H684" t="s">
         <v>4</v>
@@ -27526,7 +27532,7 @@
         <v>1268</v>
       </c>
       <c r="G688" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H688" t="s">
         <v>4</v>
@@ -27555,7 +27561,7 @@
         <v>1270</v>
       </c>
       <c r="G689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H689" t="s">
         <v>4</v>
@@ -27729,7 +27735,7 @@
         <v>1282</v>
       </c>
       <c r="G695" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H695" t="s">
         <v>4</v>
@@ -27758,7 +27764,7 @@
         <v>1284</v>
       </c>
       <c r="G696" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H696" t="s">
         <v>4</v>
@@ -27787,7 +27793,7 @@
         <v>1286</v>
       </c>
       <c r="G697" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H697" t="s">
         <v>4</v>
@@ -27816,7 +27822,7 @@
         <v>1288</v>
       </c>
       <c r="G698" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H698" t="s">
         <v>4</v>
@@ -27845,7 +27851,7 @@
         <v>1290</v>
       </c>
       <c r="G699" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H699" t="s">
         <v>4</v>
@@ -27874,7 +27880,7 @@
         <v>1292</v>
       </c>
       <c r="G700" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H700" t="s">
         <v>4</v>
@@ -27903,7 +27909,7 @@
         <v>1294</v>
       </c>
       <c r="G701" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H701" t="s">
         <v>4</v>
@@ -27932,7 +27938,7 @@
         <v>1296</v>
       </c>
       <c r="G702" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H702" t="s">
         <v>4</v>
@@ -28048,7 +28054,7 @@
         <v>1304</v>
       </c>
       <c r="G706" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H706" t="s">
         <v>4</v>
@@ -28077,7 +28083,7 @@
         <v>1306</v>
       </c>
       <c r="G707" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H707" t="s">
         <v>4</v>
@@ -28135,7 +28141,7 @@
         <v>1310</v>
       </c>
       <c r="G709" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H709" t="s">
         <v>4</v>
@@ -28164,7 +28170,7 @@
         <v>1312</v>
       </c>
       <c r="G710" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H710" t="s">
         <v>4</v>
@@ -28222,7 +28228,7 @@
         <v>1316</v>
       </c>
       <c r="G712" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H712" t="s">
         <v>4</v>
@@ -28251,7 +28257,7 @@
         <v>1318</v>
       </c>
       <c r="G713" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H713" t="s">
         <v>4</v>
@@ -28309,7 +28315,7 @@
         <v>1322</v>
       </c>
       <c r="G715" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H715" t="s">
         <v>4</v>
@@ -28338,7 +28344,7 @@
         <v>1324</v>
       </c>
       <c r="G716" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H716" t="s">
         <v>4</v>
@@ -28396,7 +28402,7 @@
         <v>1328</v>
       </c>
       <c r="G718" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H718" t="s">
         <v>4</v>
@@ -28425,7 +28431,7 @@
         <v>1330</v>
       </c>
       <c r="G719" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H719" t="s">
         <v>4</v>
@@ -28454,7 +28460,7 @@
         <v>1332</v>
       </c>
       <c r="G720" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H720" t="s">
         <v>4</v>
@@ -28483,7 +28489,7 @@
         <v>1334</v>
       </c>
       <c r="G721" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H721" t="s">
         <v>4</v>
@@ -28512,7 +28518,7 @@
         <v>1336</v>
       </c>
       <c r="G722" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H722" t="s">
         <v>4</v>
@@ -28570,7 +28576,7 @@
         <v>1340</v>
       </c>
       <c r="G724" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H724" t="s">
         <v>4</v>
@@ -28599,7 +28605,7 @@
         <v>1342</v>
       </c>
       <c r="G725" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H725" t="s">
         <v>4</v>
@@ -28657,7 +28663,7 @@
         <v>1346</v>
       </c>
       <c r="G727" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H727" t="s">
         <v>4</v>
@@ -28686,7 +28692,7 @@
         <v>1348</v>
       </c>
       <c r="G728" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H728" t="s">
         <v>4</v>
@@ -28715,7 +28721,7 @@
         <v>1350</v>
       </c>
       <c r="G729" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H729" t="s">
         <v>4</v>
@@ -28744,7 +28750,7 @@
         <v>1352</v>
       </c>
       <c r="G730" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H730" t="s">
         <v>4</v>
@@ -28773,7 +28779,7 @@
         <v>1354</v>
       </c>
       <c r="G731" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H731" t="s">
         <v>4</v>
@@ -28802,7 +28808,7 @@
         <v>1356</v>
       </c>
       <c r="G732" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H732" t="s">
         <v>4</v>
@@ -28831,7 +28837,7 @@
         <v>1358</v>
       </c>
       <c r="G733" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H733" t="s">
         <v>4</v>
@@ -28860,7 +28866,7 @@
         <v>1360</v>
       </c>
       <c r="G734" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H734" t="s">
         <v>4</v>
@@ -28889,7 +28895,7 @@
         <v>1362</v>
       </c>
       <c r="G735" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H735" t="s">
         <v>4</v>
@@ -29005,7 +29011,7 @@
         <v>1370</v>
       </c>
       <c r="G739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H739" t="s">
         <v>4</v>
@@ -29034,7 +29040,7 @@
         <v>1372</v>
       </c>
       <c r="G740" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H740" t="s">
         <v>4</v>
@@ -29063,7 +29069,7 @@
         <v>1374</v>
       </c>
       <c r="G741" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H741" t="s">
         <v>4</v>
@@ -29092,7 +29098,7 @@
         <v>1376</v>
       </c>
       <c r="G742" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H742" t="s">
         <v>4</v>
@@ -29121,7 +29127,7 @@
         <v>1378</v>
       </c>
       <c r="G743" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H743" t="s">
         <v>4</v>
@@ -29150,7 +29156,7 @@
         <v>1380</v>
       </c>
       <c r="G744" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H744" t="s">
         <v>4</v>
@@ -29179,7 +29185,7 @@
         <v>1382</v>
       </c>
       <c r="G745" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H745" t="s">
         <v>4</v>
@@ -29208,7 +29214,7 @@
         <v>1384</v>
       </c>
       <c r="G746" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H746" t="s">
         <v>4</v>
@@ -29266,7 +29272,7 @@
         <v>1388</v>
       </c>
       <c r="G748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H748" t="s">
         <v>4</v>
@@ -29295,7 +29301,7 @@
         <v>1390</v>
       </c>
       <c r="G749" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H749" t="s">
         <v>4</v>
@@ -29324,7 +29330,7 @@
         <v>1392</v>
       </c>
       <c r="G750" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H750" t="s">
         <v>4</v>
@@ -29382,7 +29388,7 @@
         <v>1396</v>
       </c>
       <c r="G752" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H752" t="s">
         <v>4</v>
@@ -29411,7 +29417,7 @@
         <v>1398</v>
       </c>
       <c r="G753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H753" t="s">
         <v>4</v>
@@ -29469,7 +29475,7 @@
         <v>1402</v>
       </c>
       <c r="G755" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H755" t="s">
         <v>4</v>
@@ -29498,7 +29504,7 @@
         <v>1404</v>
       </c>
       <c r="G756" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H756" t="s">
         <v>4</v>
@@ -29759,7 +29765,7 @@
         <v>1422</v>
       </c>
       <c r="G765" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H765" t="s">
         <v>4</v>
@@ -29817,7 +29823,7 @@
         <v>1426</v>
       </c>
       <c r="G767" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H767" t="s">
         <v>4</v>
@@ -29904,7 +29910,7 @@
         <v>1432</v>
       </c>
       <c r="G770" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H770" t="s">
         <v>4</v>
@@ -29933,7 +29939,7 @@
         <v>1434</v>
       </c>
       <c r="G771" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H771" t="s">
         <v>4</v>
@@ -30252,7 +30258,7 @@
         <v>1456</v>
       </c>
       <c r="G782" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -30281,7 +30287,7 @@
         <v>1458</v>
       </c>
       <c r="G783" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H783" t="s">
         <v>4</v>
@@ -30310,7 +30316,7 @@
         <v>1460</v>
       </c>
       <c r="G784" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H784" t="s">
         <v>4</v>
@@ -30339,7 +30345,7 @@
         <v>1462</v>
       </c>
       <c r="G785" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H785" t="s">
         <v>4</v>
@@ -30368,7 +30374,7 @@
         <v>1464</v>
       </c>
       <c r="G786" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -30397,7 +30403,7 @@
         <v>1466</v>
       </c>
       <c r="G787" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H787" t="s">
         <v>4</v>
@@ -30455,7 +30461,7 @@
         <v>1470</v>
       </c>
       <c r="G789" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H789" t="s">
         <v>4</v>
@@ -30484,7 +30490,7 @@
         <v>1472</v>
       </c>
       <c r="G790" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H790" t="s">
         <v>4</v>
@@ -30571,7 +30577,7 @@
         <v>1478</v>
       </c>
       <c r="G793" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H793" t="s">
         <v>4</v>
@@ -30600,7 +30606,7 @@
         <v>1480</v>
       </c>
       <c r="G794" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H794" t="s">
         <v>4</v>
@@ -30658,7 +30664,7 @@
         <v>1484</v>
       </c>
       <c r="G796" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H796" t="s">
         <v>4</v>
@@ -30687,7 +30693,7 @@
         <v>1486</v>
       </c>
       <c r="G797" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H797" t="s">
         <v>4</v>
@@ -30716,7 +30722,7 @@
         <v>1488</v>
       </c>
       <c r="G798" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H798" t="s">
         <v>4</v>
@@ -30745,7 +30751,7 @@
         <v>1490</v>
       </c>
       <c r="G799" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H799" t="s">
         <v>4</v>
@@ -30774,7 +30780,7 @@
         <v>1492</v>
       </c>
       <c r="G800" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H800" t="s">
         <v>4</v>
@@ -30803,7 +30809,7 @@
         <v>1494</v>
       </c>
       <c r="G801" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H801" t="s">
         <v>4</v>
@@ -30890,7 +30896,7 @@
         <v>1500</v>
       </c>
       <c r="G804" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H804" t="s">
         <v>4</v>
@@ -30919,7 +30925,7 @@
         <v>1502</v>
       </c>
       <c r="G805" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -30948,7 +30954,7 @@
         <v>1504</v>
       </c>
       <c r="G806" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H806" t="s">
         <v>4</v>
@@ -30977,7 +30983,7 @@
         <v>1506</v>
       </c>
       <c r="G807" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H807" t="s">
         <v>4</v>
@@ -31035,7 +31041,7 @@
         <v>1510</v>
       </c>
       <c r="G809" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H809" t="s">
         <v>4</v>
@@ -31064,7 +31070,7 @@
         <v>1512</v>
       </c>
       <c r="G810" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H810" t="s">
         <v>4</v>
@@ -31093,7 +31099,7 @@
         <v>1514</v>
       </c>
       <c r="G811" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H811" t="s">
         <v>4</v>
@@ -31122,7 +31128,7 @@
         <v>1516</v>
       </c>
       <c r="G812" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H812" t="s">
         <v>4</v>
@@ -31151,7 +31157,7 @@
         <v>1518</v>
       </c>
       <c r="G813" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H813" t="s">
         <v>4</v>
@@ -31209,7 +31215,7 @@
         <v>1522</v>
       </c>
       <c r="G815" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H815" t="s">
         <v>4</v>
@@ -31238,7 +31244,7 @@
         <v>1524</v>
       </c>
       <c r="G816" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H816" t="s">
         <v>4</v>
@@ -31267,7 +31273,7 @@
         <v>1526</v>
       </c>
       <c r="G817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H817" t="s">
         <v>4</v>
@@ -31296,7 +31302,7 @@
         <v>1528</v>
       </c>
       <c r="G818" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H818" t="s">
         <v>4</v>
@@ -31325,7 +31331,7 @@
         <v>1530</v>
       </c>
       <c r="G819" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H819" t="s">
         <v>4</v>
@@ -31354,7 +31360,7 @@
         <v>1532</v>
       </c>
       <c r="G820" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H820" t="s">
         <v>4</v>
@@ -31383,7 +31389,7 @@
         <v>1534</v>
       </c>
       <c r="G821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H821" t="s">
         <v>4</v>
@@ -31412,7 +31418,7 @@
         <v>1536</v>
       </c>
       <c r="G822" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H822" t="s">
         <v>4</v>
@@ -31470,7 +31476,7 @@
         <v>1540</v>
       </c>
       <c r="G824" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H824" t="s">
         <v>4</v>
@@ -31499,7 +31505,7 @@
         <v>1542</v>
       </c>
       <c r="G825" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H825" t="s">
         <v>4</v>
@@ -31528,7 +31534,7 @@
         <v>1544</v>
       </c>
       <c r="G826" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H826" t="s">
         <v>4</v>
@@ -31615,7 +31621,7 @@
         <v>1550</v>
       </c>
       <c r="G829" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H829" t="s">
         <v>4</v>
@@ -31789,7 +31795,7 @@
         <v>1562</v>
       </c>
       <c r="G835" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H835" t="s">
         <v>4</v>
@@ -31818,7 +31824,7 @@
         <v>1564</v>
       </c>
       <c r="G836" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H836" t="s">
         <v>4</v>
@@ -31847,7 +31853,7 @@
         <v>1566</v>
       </c>
       <c r="G837" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H837" t="s">
         <v>4</v>
@@ -31876,7 +31882,7 @@
         <v>1568</v>
       </c>
       <c r="G838" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H838" t="s">
         <v>4</v>
@@ -31905,7 +31911,7 @@
         <v>1570</v>
       </c>
       <c r="G839" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H839" t="s">
         <v>4</v>
@@ -31963,7 +31969,7 @@
         <v>1574</v>
       </c>
       <c r="G841" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -31992,7 +31998,7 @@
         <v>1576</v>
       </c>
       <c r="G842" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H842" t="s">
         <v>4</v>
@@ -32021,7 +32027,7 @@
         <v>1578</v>
       </c>
       <c r="G843" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H843" t="s">
         <v>4</v>
@@ -32050,7 +32056,7 @@
         <v>1580</v>
       </c>
       <c r="G844" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H844" t="s">
         <v>4</v>
@@ -32137,7 +32143,7 @@
         <v>1586</v>
       </c>
       <c r="G847" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H847" t="s">
         <v>4</v>
@@ -32166,7 +32172,7 @@
         <v>1588</v>
       </c>
       <c r="G848" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H848" t="s">
         <v>4</v>
@@ -32224,7 +32230,7 @@
         <v>1592</v>
       </c>
       <c r="G850" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H850" t="s">
         <v>4</v>
@@ -32253,7 +32259,7 @@
         <v>1594</v>
       </c>
       <c r="G851" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H851" t="s">
         <v>4</v>
@@ -32282,7 +32288,7 @@
         <v>1596</v>
       </c>
       <c r="G852" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H852" t="s">
         <v>4</v>
@@ -32311,7 +32317,7 @@
         <v>1598</v>
       </c>
       <c r="G853" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H853" t="s">
         <v>4</v>
@@ -32340,7 +32346,7 @@
         <v>1600</v>
       </c>
       <c r="G854" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H854" t="s">
         <v>4</v>
@@ -32369,7 +32375,7 @@
         <v>1602</v>
       </c>
       <c r="G855" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H855" t="s">
         <v>4</v>
@@ -32456,7 +32462,7 @@
         <v>1608</v>
       </c>
       <c r="G858" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H858" t="s">
         <v>4</v>
@@ -32485,7 +32491,7 @@
         <v>1610</v>
       </c>
       <c r="G859" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H859" t="s">
         <v>4</v>
@@ -32514,7 +32520,7 @@
         <v>1612</v>
       </c>
       <c r="G860" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H860" t="s">
         <v>4</v>
@@ -32543,7 +32549,7 @@
         <v>1614</v>
       </c>
       <c r="G861" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H861" t="s">
         <v>4</v>
@@ -32566,10 +32572,10 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1337</v>
+        <v>1615</v>
       </c>
       <c r="F862" t="s">
-        <v>1338</v>
+        <v>1616</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -32595,13 +32601,13 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>1615</v>
+        <v>1339</v>
       </c>
       <c r="F863" t="s">
-        <v>1616</v>
+        <v>1340</v>
       </c>
       <c r="G863" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H863" t="s">
         <v>4</v>
@@ -32630,7 +32636,7 @@
         <v>1618</v>
       </c>
       <c r="G864" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H864" t="s">
         <v>4</v>
@@ -32688,7 +32694,7 @@
         <v>1622</v>
       </c>
       <c r="G866" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H866" t="s">
         <v>4</v>
@@ -32717,7 +32723,7 @@
         <v>1624</v>
       </c>
       <c r="G867" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H867" t="s">
         <v>4</v>
@@ -32740,13 +32746,13 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1515</v>
+        <v>1625</v>
       </c>
       <c r="F868" t="s">
-        <v>1516</v>
+        <v>1626</v>
       </c>
       <c r="G868" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H868" t="s">
         <v>4</v>
@@ -32769,13 +32775,13 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1625</v>
+        <v>1517</v>
       </c>
       <c r="F869" t="s">
-        <v>1626</v>
+        <v>1518</v>
       </c>
       <c r="G869" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H869" t="s">
         <v>4</v>
@@ -32798,13 +32804,13 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1363</v>
+        <v>1627</v>
       </c>
       <c r="F870" t="s">
-        <v>1364</v>
+        <v>1628</v>
       </c>
       <c r="G870" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H870" t="s">
         <v>4</v>
@@ -32827,10 +32833,10 @@
         <v>870</v>
       </c>
       <c r="E871" t="s">
-        <v>1627</v>
+        <v>1365</v>
       </c>
       <c r="F871" t="s">
-        <v>1628</v>
+        <v>1366</v>
       </c>
       <c r="G871" t="n">
         <v>1</v>
@@ -32862,7 +32868,7 @@
         <v>1630</v>
       </c>
       <c r="G872" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H872" t="s">
         <v>4</v>
@@ -32885,13 +32891,13 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1543</v>
+        <v>1631</v>
       </c>
       <c r="F873" t="s">
-        <v>1544</v>
+        <v>1632</v>
       </c>
       <c r="G873" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H873" t="s">
         <v>4</v>
@@ -32914,13 +32920,13 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
       <c r="F874" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="G874" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H874" t="s">
         <v>4</v>
@@ -32943,13 +32949,13 @@
         <v>874</v>
       </c>
       <c r="E875" t="s">
-        <v>1631</v>
+        <v>1541</v>
       </c>
       <c r="F875" t="s">
-        <v>1632</v>
+        <v>1542</v>
       </c>
       <c r="G875" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H875" t="s">
         <v>4</v>
@@ -33007,7 +33013,7 @@
         <v>1636</v>
       </c>
       <c r="G877" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H877" t="s">
         <v>4</v>
@@ -33036,7 +33042,7 @@
         <v>1638</v>
       </c>
       <c r="G878" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H878" t="s">
         <v>4</v>
@@ -33094,7 +33100,7 @@
         <v>1642</v>
       </c>
       <c r="G880" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H880" t="s">
         <v>4</v>
@@ -33123,7 +33129,7 @@
         <v>1644</v>
       </c>
       <c r="G881" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H881" t="s">
         <v>4</v>
@@ -33152,7 +33158,7 @@
         <v>1646</v>
       </c>
       <c r="G882" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H882" t="s">
         <v>4</v>
@@ -33210,7 +33216,7 @@
         <v>1650</v>
       </c>
       <c r="G884" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H884" t="s">
         <v>4</v>
@@ -33239,7 +33245,7 @@
         <v>1652</v>
       </c>
       <c r="G885" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H885" t="s">
         <v>4</v>
@@ -33268,7 +33274,7 @@
         <v>1654</v>
       </c>
       <c r="G886" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H886" t="s">
         <v>4</v>
@@ -33297,7 +33303,7 @@
         <v>1656</v>
       </c>
       <c r="G887" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H887" t="s">
         <v>4</v>
@@ -33320,13 +33326,13 @@
         <v>887</v>
       </c>
       <c r="E888" t="s">
-        <v>1559</v>
+        <v>1657</v>
       </c>
       <c r="F888" t="s">
-        <v>1560</v>
+        <v>1658</v>
       </c>
       <c r="G888" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H888" t="s">
         <v>4</v>
@@ -33349,10 +33355,10 @@
         <v>888</v>
       </c>
       <c r="E889" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="F889" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="G889" t="n">
         <v>1</v>
@@ -33378,13 +33384,13 @@
         <v>889</v>
       </c>
       <c r="E890" t="s">
-        <v>1453</v>
+        <v>1559</v>
       </c>
       <c r="F890" t="s">
-        <v>1454</v>
+        <v>1560</v>
       </c>
       <c r="G890" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H890" t="s">
         <v>4</v>
@@ -33407,13 +33413,13 @@
         <v>890</v>
       </c>
       <c r="E891" t="s">
-        <v>1657</v>
+        <v>1455</v>
       </c>
       <c r="F891" t="s">
-        <v>1658</v>
+        <v>1456</v>
       </c>
       <c r="G891" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H891" t="s">
         <v>4</v>
@@ -33442,7 +33448,7 @@
         <v>1660</v>
       </c>
       <c r="G892" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H892" t="s">
         <v>4</v>
@@ -33471,7 +33477,7 @@
         <v>1662</v>
       </c>
       <c r="G893" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H893" t="s">
         <v>4</v>
@@ -33500,7 +33506,7 @@
         <v>1664</v>
       </c>
       <c r="G894" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H894" t="s">
         <v>4</v>
@@ -33529,7 +33535,7 @@
         <v>1666</v>
       </c>
       <c r="G895" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H895" t="s">
         <v>4</v>
@@ -33697,13 +33703,13 @@
         <v>900</v>
       </c>
       <c r="E901" t="s">
-        <v>671</v>
+        <v>1677</v>
       </c>
       <c r="F901" t="s">
-        <v>672</v>
+        <v>1678</v>
       </c>
       <c r="G901" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H901" t="s">
         <v>4</v>
@@ -33726,13 +33732,13 @@
         <v>901</v>
       </c>
       <c r="E902" t="s">
-        <v>1677</v>
+        <v>671</v>
       </c>
       <c r="F902" t="s">
-        <v>1678</v>
+        <v>672</v>
       </c>
       <c r="G902" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H902" t="s">
         <v>4</v>
@@ -33761,7 +33767,7 @@
         <v>1680</v>
       </c>
       <c r="G903" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H903" t="s">
         <v>4</v>
@@ -33964,7 +33970,7 @@
         <v>1694</v>
       </c>
       <c r="G910" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H910" t="s">
         <v>4</v>
@@ -33993,7 +33999,7 @@
         <v>1696</v>
       </c>
       <c r="G911" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H911" t="s">
         <v>4</v>
@@ -34022,7 +34028,7 @@
         <v>1698</v>
       </c>
       <c r="G912" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H912" t="s">
         <v>4</v>
@@ -34051,7 +34057,7 @@
         <v>1700</v>
       </c>
       <c r="G913" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H913" t="s">
         <v>4</v>
@@ -34167,7 +34173,7 @@
         <v>1708</v>
       </c>
       <c r="G917" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H917" t="s">
         <v>4</v>
@@ -34196,7 +34202,7 @@
         <v>1710</v>
       </c>
       <c r="G918" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H918" t="s">
         <v>4</v>
@@ -34225,7 +34231,7 @@
         <v>1712</v>
       </c>
       <c r="G919" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H919" t="s">
         <v>4</v>
@@ -34254,7 +34260,7 @@
         <v>1714</v>
       </c>
       <c r="G920" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H920" t="s">
         <v>4</v>
@@ -34283,7 +34289,7 @@
         <v>1716</v>
       </c>
       <c r="G921" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H921" t="s">
         <v>4</v>
@@ -34312,7 +34318,7 @@
         <v>1718</v>
       </c>
       <c r="G922" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H922" t="s">
         <v>4</v>
@@ -34399,7 +34405,7 @@
         <v>1724</v>
       </c>
       <c r="G925" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H925" t="s">
         <v>4</v>
@@ -34428,7 +34434,7 @@
         <v>1726</v>
       </c>
       <c r="G926" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H926" t="s">
         <v>4</v>
@@ -34457,7 +34463,7 @@
         <v>1728</v>
       </c>
       <c r="G927" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H927" t="s">
         <v>4</v>
@@ -34486,7 +34492,7 @@
         <v>1730</v>
       </c>
       <c r="G928" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H928" t="s">
         <v>4</v>
@@ -34509,13 +34515,13 @@
         <v>928</v>
       </c>
       <c r="E929" t="s">
-        <v>1305</v>
+        <v>1731</v>
       </c>
       <c r="F929" t="s">
-        <v>1306</v>
+        <v>1732</v>
       </c>
       <c r="G929" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H929" t="s">
         <v>4</v>
@@ -34538,13 +34544,13 @@
         <v>929</v>
       </c>
       <c r="E930" t="s">
-        <v>1731</v>
+        <v>1307</v>
       </c>
       <c r="F930" t="s">
-        <v>1732</v>
+        <v>1308</v>
       </c>
       <c r="G930" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H930" t="s">
         <v>4</v>
@@ -34573,7 +34579,7 @@
         <v>1734</v>
       </c>
       <c r="G931" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H931" t="s">
         <v>4</v>
@@ -34602,7 +34608,7 @@
         <v>1736</v>
       </c>
       <c r="G932" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H932" t="s">
         <v>4</v>
@@ -34805,7 +34811,7 @@
         <v>1750</v>
       </c>
       <c r="G939" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H939" t="s">
         <v>4</v>
@@ -34834,7 +34840,7 @@
         <v>1752</v>
       </c>
       <c r="G940" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H940" t="s">
         <v>4</v>
@@ -34950,7 +34956,7 @@
         <v>1760</v>
       </c>
       <c r="G944" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H944" t="s">
         <v>4</v>
@@ -34979,7 +34985,7 @@
         <v>1762</v>
       </c>
       <c r="G945" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H945" t="s">
         <v>4</v>
@@ -35008,7 +35014,7 @@
         <v>1764</v>
       </c>
       <c r="G946" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H946" t="s">
         <v>4</v>
@@ -35031,13 +35037,13 @@
         <v>946</v>
       </c>
       <c r="E947" t="s">
-        <v>1355</v>
+        <v>1765</v>
       </c>
       <c r="F947" t="s">
-        <v>1356</v>
+        <v>1766</v>
       </c>
       <c r="G947" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H947" t="s">
         <v>4</v>
@@ -35060,10 +35066,10 @@
         <v>947</v>
       </c>
       <c r="E948" t="s">
-        <v>1765</v>
+        <v>1357</v>
       </c>
       <c r="F948" t="s">
-        <v>1766</v>
+        <v>1358</v>
       </c>
       <c r="G948" t="n">
         <v>2</v>
@@ -35095,7 +35101,7 @@
         <v>1768</v>
       </c>
       <c r="G949" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H949" t="s">
         <v>4</v>
@@ -35269,7 +35275,7 @@
         <v>1780</v>
       </c>
       <c r="G955" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H955" t="s">
         <v>4</v>
@@ -35298,7 +35304,7 @@
         <v>1782</v>
       </c>
       <c r="G956" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H956" t="s">
         <v>4</v>
@@ -35385,7 +35391,7 @@
         <v>1788</v>
       </c>
       <c r="G959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H959" t="s">
         <v>4</v>
@@ -35443,7 +35449,7 @@
         <v>1792</v>
       </c>
       <c r="G961" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H961" t="s">
         <v>4</v>
@@ -35466,13 +35472,13 @@
         <v>961</v>
       </c>
       <c r="E962" t="s">
-        <v>1385</v>
+        <v>1793</v>
       </c>
       <c r="F962" t="s">
-        <v>1386</v>
+        <v>1794</v>
       </c>
       <c r="G962" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H962" t="s">
         <v>4</v>
@@ -35495,13 +35501,13 @@
         <v>962</v>
       </c>
       <c r="E963" t="s">
-        <v>1531</v>
+        <v>1387</v>
       </c>
       <c r="F963" t="s">
-        <v>1532</v>
+        <v>1388</v>
       </c>
       <c r="G963" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H963" t="s">
         <v>4</v>
@@ -35524,10 +35530,10 @@
         <v>963</v>
       </c>
       <c r="E964" t="s">
-        <v>1793</v>
+        <v>1533</v>
       </c>
       <c r="F964" t="s">
-        <v>1794</v>
+        <v>1534</v>
       </c>
       <c r="G964" t="n">
         <v>1</v>
@@ -35588,7 +35594,7 @@
         <v>1798</v>
       </c>
       <c r="G966" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H966" t="s">
         <v>4</v>
@@ -35617,7 +35623,7 @@
         <v>1800</v>
       </c>
       <c r="G967" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H967" t="s">
         <v>4</v>
@@ -35646,7 +35652,7 @@
         <v>1802</v>
       </c>
       <c r="G968" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H968" t="s">
         <v>4</v>
@@ -35704,7 +35710,7 @@
         <v>1806</v>
       </c>
       <c r="G970" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H970" t="s">
         <v>4</v>
@@ -35733,7 +35739,7 @@
         <v>1808</v>
       </c>
       <c r="G971" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H971" t="s">
         <v>4</v>
@@ -35791,7 +35797,7 @@
         <v>1812</v>
       </c>
       <c r="G973" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H973" t="s">
         <v>4</v>
@@ -35849,7 +35855,7 @@
         <v>1816</v>
       </c>
       <c r="G975" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H975" t="s">
         <v>4</v>
@@ -35878,7 +35884,7 @@
         <v>1818</v>
       </c>
       <c r="G976" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H976" t="s">
         <v>4</v>
@@ -35965,7 +35971,7 @@
         <v>1824</v>
       </c>
       <c r="G979" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H979" t="s">
         <v>4</v>
@@ -35994,7 +36000,7 @@
         <v>1826</v>
       </c>
       <c r="G980" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H980" t="s">
         <v>4</v>
@@ -36081,7 +36087,7 @@
         <v>1832</v>
       </c>
       <c r="G983" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H983" t="s">
         <v>4</v>
@@ -36110,7 +36116,7 @@
         <v>1834</v>
       </c>
       <c r="G984" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H984" t="s">
         <v>4</v>
@@ -36139,7 +36145,7 @@
         <v>1836</v>
       </c>
       <c r="G985" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H985" t="s">
         <v>4</v>
@@ -36249,13 +36255,13 @@
         <v>988</v>
       </c>
       <c r="E989" t="s">
-        <v>435</v>
+        <v>1843</v>
       </c>
       <c r="F989" t="s">
-        <v>436</v>
+        <v>1844</v>
       </c>
       <c r="G989" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H989" t="s">
         <v>4</v>
@@ -36278,10 +36284,10 @@
         <v>989</v>
       </c>
       <c r="E990" t="s">
-        <v>1843</v>
+        <v>435</v>
       </c>
       <c r="F990" t="s">
-        <v>1844</v>
+        <v>436</v>
       </c>
       <c r="G990" t="n">
         <v>1</v>
@@ -36342,7 +36348,7 @@
         <v>1848</v>
       </c>
       <c r="G992" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H992" t="s">
         <v>4</v>
@@ -36400,7 +36406,7 @@
         <v>1852</v>
       </c>
       <c r="G994" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H994" t="s">
         <v>4</v>
@@ -36429,7 +36435,7 @@
         <v>1854</v>
       </c>
       <c r="G995" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H995" t="s">
         <v>4</v>
@@ -36487,7 +36493,7 @@
         <v>1858</v>
       </c>
       <c r="G997" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H997" t="s">
         <v>4</v>
@@ -36516,7 +36522,7 @@
         <v>1860</v>
       </c>
       <c r="G998" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H998" t="s">
         <v>4</v>
@@ -36545,7 +36551,7 @@
         <v>1862</v>
       </c>
       <c r="G999" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H999" t="s">
         <v>4</v>
@@ -36568,13 +36574,13 @@
         <v>999</v>
       </c>
       <c r="E1000" t="s">
-        <v>1303</v>
+        <v>1863</v>
       </c>
       <c r="F1000" t="s">
-        <v>1304</v>
+        <v>1864</v>
       </c>
       <c r="G1000" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1000" t="s">
         <v>4</v>
@@ -36597,10 +36603,10 @@
         <v>1000</v>
       </c>
       <c r="E1001" t="s">
-        <v>1863</v>
+        <v>1305</v>
       </c>
       <c r="F1001" t="s">
-        <v>1864</v>
+        <v>1306</v>
       </c>
       <c r="G1001" t="n">
         <v>1</v>
@@ -36632,7 +36638,7 @@
         <v>1866</v>
       </c>
       <c r="G1002" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1002" t="s">
         <v>4</v>
@@ -36690,7 +36696,7 @@
         <v>1870</v>
       </c>
       <c r="G1004" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1004" t="s">
         <v>4</v>
@@ -36713,10 +36719,10 @@
         <v>1004</v>
       </c>
       <c r="E1005" t="s">
-        <v>1303</v>
+        <v>1871</v>
       </c>
       <c r="F1005" t="s">
-        <v>1304</v>
+        <v>1872</v>
       </c>
       <c r="G1005" t="n">
         <v>1</v>
@@ -36742,10 +36748,10 @@
         <v>1005</v>
       </c>
       <c r="E1006" t="s">
-        <v>1871</v>
+        <v>1305</v>
       </c>
       <c r="F1006" t="s">
-        <v>1872</v>
+        <v>1306</v>
       </c>
       <c r="G1006" t="n">
         <v>1</v>
@@ -36806,7 +36812,7 @@
         <v>1876</v>
       </c>
       <c r="G1008" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1008" t="s">
         <v>4</v>
@@ -36835,7 +36841,7 @@
         <v>1878</v>
       </c>
       <c r="G1009" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1009" t="s">
         <v>4</v>
@@ -36864,7 +36870,7 @@
         <v>1880</v>
       </c>
       <c r="G1010" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1010" t="s">
         <v>4</v>
@@ -36893,7 +36899,7 @@
         <v>1882</v>
       </c>
       <c r="G1011" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1011" t="s">
         <v>4</v>
@@ -37090,10 +37096,10 @@
         <v>1017</v>
       </c>
       <c r="E1018" t="s">
-        <v>1847</v>
+        <v>1895</v>
       </c>
       <c r="F1018" t="s">
-        <v>1848</v>
+        <v>1896</v>
       </c>
       <c r="G1018" t="n">
         <v>1</v>
@@ -37119,10 +37125,10 @@
         <v>1018</v>
       </c>
       <c r="E1019" t="s">
-        <v>1361</v>
+        <v>1849</v>
       </c>
       <c r="F1019" t="s">
-        <v>1362</v>
+        <v>1850</v>
       </c>
       <c r="G1019" t="n">
         <v>1</v>
@@ -37148,10 +37154,10 @@
         <v>1019</v>
       </c>
       <c r="E1020" t="s">
-        <v>1895</v>
+        <v>1363</v>
       </c>
       <c r="F1020" t="s">
-        <v>1896</v>
+        <v>1364</v>
       </c>
       <c r="G1020" t="n">
         <v>1</v>
@@ -37241,7 +37247,7 @@
         <v>1902</v>
       </c>
       <c r="G1023" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1023" t="s">
         <v>4</v>
@@ -37270,7 +37276,7 @@
         <v>1904</v>
       </c>
       <c r="G1024" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1024" t="s">
         <v>4</v>
@@ -37328,7 +37334,7 @@
         <v>1908</v>
       </c>
       <c r="G1026" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1026" t="s">
         <v>4</v>
@@ -37357,7 +37363,7 @@
         <v>1910</v>
       </c>
       <c r="G1027" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1027" t="s">
         <v>4</v>
@@ -37386,7 +37392,7 @@
         <v>1912</v>
       </c>
       <c r="G1028" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1028" t="s">
         <v>4</v>
@@ -37531,7 +37537,7 @@
         <v>1922</v>
       </c>
       <c r="G1033" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1033" t="s">
         <v>4</v>
@@ -37560,7 +37566,7 @@
         <v>1924</v>
       </c>
       <c r="G1034" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1034" t="s">
         <v>4</v>
@@ -37583,13 +37589,13 @@
         <v>1034</v>
       </c>
       <c r="E1035" t="s">
-        <v>1287</v>
+        <v>1925</v>
       </c>
       <c r="F1035" t="s">
-        <v>1288</v>
+        <v>1926</v>
       </c>
       <c r="G1035" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H1035" t="s">
         <v>4</v>
@@ -37612,13 +37618,13 @@
         <v>1035</v>
       </c>
       <c r="E1036" t="s">
-        <v>1925</v>
+        <v>1289</v>
       </c>
       <c r="F1036" t="s">
-        <v>1926</v>
+        <v>1290</v>
       </c>
       <c r="G1036" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H1036" t="s">
         <v>4</v>
@@ -37647,7 +37653,7 @@
         <v>1928</v>
       </c>
       <c r="G1037" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1037" t="s">
         <v>4</v>
@@ -37676,7 +37682,7 @@
         <v>1930</v>
       </c>
       <c r="G1038" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1038" t="s">
         <v>4</v>
@@ -37705,7 +37711,7 @@
         <v>1932</v>
       </c>
       <c r="G1039" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1039" t="s">
         <v>4</v>
@@ -37734,7 +37740,7 @@
         <v>1934</v>
       </c>
       <c r="G1040" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H1040" t="s">
         <v>4</v>
@@ -37763,7 +37769,7 @@
         <v>1936</v>
       </c>
       <c r="G1041" t="n">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="H1041" t="s">
         <v>4</v>
@@ -37792,7 +37798,7 @@
         <v>1938</v>
       </c>
       <c r="G1042" t="n">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="H1042" t="s">
         <v>4</v>
@@ -37850,7 +37856,7 @@
         <v>1942</v>
       </c>
       <c r="G1044" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1044" t="s">
         <v>4</v>
@@ -37873,10 +37879,10 @@
         <v>1044</v>
       </c>
       <c r="E1045" t="s">
-        <v>1325</v>
+        <v>1943</v>
       </c>
       <c r="F1045" t="s">
-        <v>1326</v>
+        <v>1944</v>
       </c>
       <c r="G1045" t="n">
         <v>2</v>
@@ -37902,13 +37908,13 @@
         <v>1045</v>
       </c>
       <c r="E1046" t="s">
-        <v>1549</v>
+        <v>1327</v>
       </c>
       <c r="F1046" t="s">
-        <v>1550</v>
+        <v>1328</v>
       </c>
       <c r="G1046" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1046" t="s">
         <v>4</v>
@@ -37931,10 +37937,10 @@
         <v>1046</v>
       </c>
       <c r="E1047" t="s">
-        <v>1943</v>
+        <v>1551</v>
       </c>
       <c r="F1047" t="s">
-        <v>1944</v>
+        <v>1552</v>
       </c>
       <c r="G1047" t="n">
         <v>1</v>
@@ -37966,7 +37972,7 @@
         <v>1946</v>
       </c>
       <c r="G1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1048" t="s">
         <v>4</v>
@@ -37995,7 +38001,7 @@
         <v>1948</v>
       </c>
       <c r="G1049" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1049" t="s">
         <v>4</v>
@@ -38024,7 +38030,7 @@
         <v>1950</v>
       </c>
       <c r="G1050" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1050" t="s">
         <v>4</v>
@@ -38047,13 +38053,13 @@
         <v>1050</v>
       </c>
       <c r="E1051" t="s">
-        <v>1401</v>
+        <v>1951</v>
       </c>
       <c r="F1051" t="s">
-        <v>1402</v>
+        <v>1952</v>
       </c>
       <c r="G1051" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1051" t="s">
         <v>4</v>
@@ -38076,13 +38082,13 @@
         <v>1051</v>
       </c>
       <c r="E1052" t="s">
-        <v>1951</v>
+        <v>1403</v>
       </c>
       <c r="F1052" t="s">
-        <v>1952</v>
+        <v>1404</v>
       </c>
       <c r="G1052" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1052" t="s">
         <v>4</v>
@@ -38105,13 +38111,13 @@
         <v>1052</v>
       </c>
       <c r="E1053" t="s">
-        <v>1737</v>
+        <v>1953</v>
       </c>
       <c r="F1053" t="s">
-        <v>1738</v>
+        <v>1954</v>
       </c>
       <c r="G1053" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1053" t="s">
         <v>4</v>
@@ -38134,13 +38140,13 @@
         <v>1053</v>
       </c>
       <c r="E1054" t="s">
-        <v>1953</v>
+        <v>1739</v>
       </c>
       <c r="F1054" t="s">
-        <v>1954</v>
+        <v>1740</v>
       </c>
       <c r="G1054" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1054" t="s">
         <v>4</v>
@@ -38198,7 +38204,7 @@
         <v>1958</v>
       </c>
       <c r="G1056" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H1056" t="s">
         <v>4</v>
@@ -38227,7 +38233,7 @@
         <v>1960</v>
       </c>
       <c r="G1057" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H1057" t="s">
         <v>4</v>
@@ -38285,7 +38291,7 @@
         <v>1964</v>
       </c>
       <c r="G1059" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1059" t="s">
         <v>4</v>
@@ -38308,13 +38314,13 @@
         <v>1059</v>
       </c>
       <c r="E1060" t="s">
-        <v>1617</v>
+        <v>1965</v>
       </c>
       <c r="F1060" t="s">
-        <v>1618</v>
+        <v>1966</v>
       </c>
       <c r="G1060" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1060" t="s">
         <v>4</v>
@@ -38337,13 +38343,13 @@
         <v>1060</v>
       </c>
       <c r="E1061" t="s">
-        <v>1965</v>
+        <v>1619</v>
       </c>
       <c r="F1061" t="s">
-        <v>1966</v>
+        <v>1620</v>
       </c>
       <c r="G1061" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1061" t="s">
         <v>4</v>
@@ -38372,7 +38378,7 @@
         <v>1968</v>
       </c>
       <c r="G1062" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1062" t="s">
         <v>4</v>
@@ -38395,13 +38401,13 @@
         <v>1062</v>
       </c>
       <c r="E1063" t="s">
-        <v>1255</v>
+        <v>1969</v>
       </c>
       <c r="F1063" t="s">
-        <v>1256</v>
+        <v>1970</v>
       </c>
       <c r="G1063" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1063" t="s">
         <v>4</v>
@@ -38424,10 +38430,10 @@
         <v>1063</v>
       </c>
       <c r="E1064" t="s">
-        <v>1969</v>
+        <v>1257</v>
       </c>
       <c r="F1064" t="s">
-        <v>1970</v>
+        <v>1258</v>
       </c>
       <c r="G1064" t="n">
         <v>2</v>
@@ -38453,13 +38459,13 @@
         <v>1064</v>
       </c>
       <c r="E1065" t="s">
-        <v>1953</v>
+        <v>1971</v>
       </c>
       <c r="F1065" t="s">
-        <v>1954</v>
+        <v>1972</v>
       </c>
       <c r="G1065" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1065" t="s">
         <v>4</v>
@@ -38482,10 +38488,10 @@
         <v>1065</v>
       </c>
       <c r="E1066" t="s">
-        <v>1939</v>
+        <v>1955</v>
       </c>
       <c r="F1066" t="s">
-        <v>1940</v>
+        <v>1956</v>
       </c>
       <c r="G1066" t="n">
         <v>1</v>
@@ -38511,13 +38517,13 @@
         <v>1066</v>
       </c>
       <c r="E1067" t="s">
-        <v>1549</v>
+        <v>1941</v>
       </c>
       <c r="F1067" t="s">
-        <v>1550</v>
+        <v>1942</v>
       </c>
       <c r="G1067" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1067" t="s">
         <v>4</v>
@@ -38540,13 +38546,13 @@
         <v>1067</v>
       </c>
       <c r="E1068" t="s">
-        <v>1971</v>
+        <v>1551</v>
       </c>
       <c r="F1068" t="s">
-        <v>1972</v>
+        <v>1552</v>
       </c>
       <c r="G1068" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1068" t="s">
         <v>4</v>
@@ -38569,13 +38575,13 @@
         <v>1068</v>
       </c>
       <c r="E1069" t="s">
-        <v>1945</v>
+        <v>1973</v>
       </c>
       <c r="F1069" t="s">
-        <v>1946</v>
+        <v>1974</v>
       </c>
       <c r="G1069" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1069" t="s">
         <v>4</v>
@@ -38598,13 +38604,13 @@
         <v>1069</v>
       </c>
       <c r="E1070" t="s">
-        <v>1973</v>
+        <v>1947</v>
       </c>
       <c r="F1070" t="s">
-        <v>1974</v>
+        <v>1948</v>
       </c>
       <c r="G1070" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1070" t="s">
         <v>4</v>
@@ -38720,7 +38726,7 @@
         <v>1982</v>
       </c>
       <c r="G1074" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1074" t="s">
         <v>4</v>
@@ -38749,7 +38755,7 @@
         <v>1984</v>
       </c>
       <c r="G1075" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1075" t="s">
         <v>4</v>
@@ -38807,7 +38813,7 @@
         <v>1988</v>
       </c>
       <c r="G1077" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1077" t="s">
         <v>4</v>
@@ -38830,13 +38836,13 @@
         <v>1077</v>
       </c>
       <c r="E1078" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="F1078" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="G1078" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1078" t="s">
         <v>4</v>
@@ -38865,7 +38871,7 @@
         <v>1990</v>
       </c>
       <c r="G1079" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1079" t="s">
         <v>4</v>
@@ -38894,7 +38900,7 @@
         <v>1992</v>
       </c>
       <c r="G1080" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H1080" t="s">
         <v>4</v>
@@ -38923,7 +38929,7 @@
         <v>1994</v>
       </c>
       <c r="G1081" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1081" t="s">
         <v>4</v>
@@ -39068,7 +39074,7 @@
         <v>2004</v>
       </c>
       <c r="G1086" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1086" t="s">
         <v>4</v>
@@ -39097,7 +39103,7 @@
         <v>2006</v>
       </c>
       <c r="G1087" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1087" t="s">
         <v>4</v>
@@ -39126,7 +39132,7 @@
         <v>2008</v>
       </c>
       <c r="G1088" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1088" t="s">
         <v>4</v>
@@ -39155,7 +39161,7 @@
         <v>2010</v>
       </c>
       <c r="G1089" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H1089" t="s">
         <v>4</v>
@@ -39242,7 +39248,7 @@
         <v>2016</v>
       </c>
       <c r="G1092" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1092" t="s">
         <v>4</v>
@@ -39271,7 +39277,7 @@
         <v>2018</v>
       </c>
       <c r="G1093" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1093" t="s">
         <v>4</v>
@@ -39300,7 +39306,7 @@
         <v>2020</v>
       </c>
       <c r="G1094" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1094" t="s">
         <v>4</v>
@@ -39410,10 +39416,10 @@
         <v>1097</v>
       </c>
       <c r="E1098" t="s">
-        <v>1235</v>
+        <v>2027</v>
       </c>
       <c r="F1098" t="s">
-        <v>1236</v>
+        <v>2028</v>
       </c>
       <c r="G1098" t="n">
         <v>1</v>
@@ -39439,13 +39445,13 @@
         <v>1098</v>
       </c>
       <c r="E1099" t="s">
-        <v>2027</v>
+        <v>1237</v>
       </c>
       <c r="F1099" t="s">
-        <v>2028</v>
+        <v>1238</v>
       </c>
       <c r="G1099" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1099" t="s">
         <v>4</v>
@@ -39474,7 +39480,7 @@
         <v>2030</v>
       </c>
       <c r="G1100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1100" t="s">
         <v>4</v>
@@ -39590,7 +39596,7 @@
         <v>2038</v>
       </c>
       <c r="G1104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1104" t="s">
         <v>4</v>
@@ -39648,7 +39654,7 @@
         <v>2042</v>
       </c>
       <c r="G1106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1106" t="s">
         <v>4</v>
@@ -39677,7 +39683,7 @@
         <v>2044</v>
       </c>
       <c r="G1107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1107" t="s">
         <v>4</v>
@@ -39700,13 +39706,13 @@
         <v>1107</v>
       </c>
       <c r="E1108" t="s">
-        <v>103</v>
+        <v>2045</v>
       </c>
       <c r="F1108" t="s">
-        <v>104</v>
+        <v>2046</v>
       </c>
       <c r="G1108" t="n">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="H1108" t="s">
         <v>4</v>
@@ -39729,13 +39735,13 @@
         <v>1108</v>
       </c>
       <c r="E1109" t="s">
-        <v>2045</v>
+        <v>103</v>
       </c>
       <c r="F1109" t="s">
-        <v>2046</v>
+        <v>104</v>
       </c>
       <c r="G1109" t="n">
-        <v>365</v>
+        <v>99</v>
       </c>
       <c r="H1109" t="s">
         <v>4</v>
@@ -39758,13 +39764,13 @@
         <v>1109</v>
       </c>
       <c r="E1110" t="s">
-        <v>719</v>
+        <v>2047</v>
       </c>
       <c r="F1110" t="s">
-        <v>720</v>
+        <v>2048</v>
       </c>
       <c r="G1110" t="n">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="H1110" t="s">
         <v>4</v>
@@ -39787,13 +39793,13 @@
         <v>1110</v>
       </c>
       <c r="E1111" t="s">
-        <v>33</v>
+        <v>719</v>
       </c>
       <c r="F1111" t="s">
-        <v>34</v>
+        <v>720</v>
       </c>
       <c r="G1111" t="n">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="H1111" t="s">
         <v>4</v>
@@ -39816,13 +39822,13 @@
         <v>1111</v>
       </c>
       <c r="E1112" t="s">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="F1112" t="s">
-        <v>296</v>
+        <v>34</v>
       </c>
       <c r="G1112" t="n">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="H1112" t="s">
         <v>4</v>
@@ -39845,13 +39851,13 @@
         <v>1112</v>
       </c>
       <c r="E1113" t="s">
-        <v>2047</v>
+        <v>295</v>
       </c>
       <c r="F1113" t="s">
-        <v>2048</v>
+        <v>296</v>
       </c>
       <c r="G1113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1113" t="s">
         <v>4</v>
@@ -39880,7 +39886,7 @@
         <v>2050</v>
       </c>
       <c r="G1114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1114" t="s">
         <v>4</v>
@@ -39909,7 +39915,7 @@
         <v>2052</v>
       </c>
       <c r="G1115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1115" t="s">
         <v>4</v>
@@ -39938,7 +39944,7 @@
         <v>2054</v>
       </c>
       <c r="G1116" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1116" t="s">
         <v>4</v>
@@ -40083,7 +40089,7 @@
         <v>2064</v>
       </c>
       <c r="G1121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1121" t="s">
         <v>4</v>
@@ -40112,7 +40118,7 @@
         <v>2066</v>
       </c>
       <c r="G1122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1122" t="s">
         <v>4</v>
@@ -40141,7 +40147,7 @@
         <v>2068</v>
       </c>
       <c r="G1123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1123" t="s">
         <v>4</v>
@@ -40199,7 +40205,7 @@
         <v>2072</v>
       </c>
       <c r="G1125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1125" t="s">
         <v>4</v>
@@ -40228,7 +40234,7 @@
         <v>2074</v>
       </c>
       <c r="G1126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1126" t="s">
         <v>4</v>
@@ -40257,7 +40263,7 @@
         <v>2076</v>
       </c>
       <c r="G1127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1127" t="s">
         <v>4</v>
@@ -40286,7 +40292,7 @@
         <v>2078</v>
       </c>
       <c r="G1128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1128" t="s">
         <v>4</v>
@@ -40721,7 +40727,7 @@
         <v>2108</v>
       </c>
       <c r="G1143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1143" t="s">
         <v>4</v>
@@ -40750,7 +40756,7 @@
         <v>2110</v>
       </c>
       <c r="G1144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1144" t="s">
         <v>4</v>
@@ -40976,10 +40982,10 @@
         <v>1151</v>
       </c>
       <c r="E1152" t="s">
-        <v>295</v>
+        <v>2125</v>
       </c>
       <c r="F1152" t="s">
-        <v>296</v>
+        <v>2126</v>
       </c>
       <c r="G1152" t="n">
         <v>1</v>
@@ -41005,10 +41011,10 @@
         <v>1152</v>
       </c>
       <c r="E1153" t="s">
-        <v>2125</v>
+        <v>295</v>
       </c>
       <c r="F1153" t="s">
-        <v>2126</v>
+        <v>296</v>
       </c>
       <c r="G1153" t="n">
         <v>1</v>
@@ -41620,7 +41626,7 @@
         <v>2168</v>
       </c>
       <c r="G1174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1174" t="s">
         <v>4</v>
@@ -41649,7 +41655,7 @@
         <v>2170</v>
       </c>
       <c r="G1175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1175" t="s">
         <v>4</v>
@@ -41736,7 +41742,7 @@
         <v>2176</v>
       </c>
       <c r="G1178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1178" t="s">
         <v>4</v>
@@ -41823,7 +41829,7 @@
         <v>2182</v>
       </c>
       <c r="G1181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1181" t="s">
         <v>4</v>
@@ -42049,13 +42055,13 @@
         <v>1188</v>
       </c>
       <c r="E1189" t="s">
-        <v>99</v>
+        <v>2197</v>
       </c>
       <c r="F1189" t="s">
-        <v>100</v>
+        <v>2198</v>
       </c>
       <c r="G1189" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H1189" t="s">
         <v>4</v>
@@ -42078,13 +42084,13 @@
         <v>1189</v>
       </c>
       <c r="E1190" t="s">
-        <v>2197</v>
+        <v>99</v>
       </c>
       <c r="F1190" t="s">
-        <v>2198</v>
+        <v>100</v>
       </c>
       <c r="G1190" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H1190" t="s">
         <v>4</v>
@@ -42113,7 +42119,7 @@
         <v>2200</v>
       </c>
       <c r="G1191" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1191" t="s">
         <v>4</v>
@@ -42165,10 +42171,10 @@
         <v>1192</v>
       </c>
       <c r="E1193" t="s">
-        <v>173</v>
+        <v>2203</v>
       </c>
       <c r="F1193" t="s">
-        <v>174</v>
+        <v>2204</v>
       </c>
       <c r="G1193" t="n">
         <v>1</v>
@@ -42194,10 +42200,10 @@
         <v>1193</v>
       </c>
       <c r="E1194" t="s">
-        <v>2203</v>
+        <v>173</v>
       </c>
       <c r="F1194" t="s">
-        <v>2204</v>
+        <v>174</v>
       </c>
       <c r="G1194" t="n">
         <v>1</v>
@@ -42287,7 +42293,7 @@
         <v>2210</v>
       </c>
       <c r="G1197" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1197" t="s">
         <v>4</v>
@@ -42316,7 +42322,7 @@
         <v>2212</v>
       </c>
       <c r="G1198" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1198" t="s">
         <v>4</v>
@@ -42374,7 +42380,7 @@
         <v>2216</v>
       </c>
       <c r="G1200" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1200" t="s">
         <v>4</v>
@@ -42403,7 +42409,7 @@
         <v>2218</v>
       </c>
       <c r="G1201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1201" t="s">
         <v>4</v>
@@ -42548,7 +42554,7 @@
         <v>2228</v>
       </c>
       <c r="G1206" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1206" t="s">
         <v>4</v>
@@ -42577,7 +42583,7 @@
         <v>2230</v>
       </c>
       <c r="G1207" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1207" t="s">
         <v>4</v>
@@ -42635,7 +42641,7 @@
         <v>2234</v>
       </c>
       <c r="G1209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1209" t="s">
         <v>4</v>
@@ -42664,7 +42670,7 @@
         <v>2236</v>
       </c>
       <c r="G1210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1210" t="s">
         <v>4</v>
@@ -43012,7 +43018,7 @@
         <v>2260</v>
       </c>
       <c r="G1222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1222" t="s">
         <v>4</v>
@@ -43035,13 +43041,13 @@
         <v>1222</v>
       </c>
       <c r="E1223" t="s">
-        <v>115</v>
+        <v>2261</v>
       </c>
       <c r="F1223" t="s">
-        <v>116</v>
+        <v>2262</v>
       </c>
       <c r="G1223" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H1223" t="s">
         <v>4</v>
@@ -43064,13 +43070,13 @@
         <v>1223</v>
       </c>
       <c r="E1224" t="s">
-        <v>2261</v>
+        <v>115</v>
       </c>
       <c r="F1224" t="s">
-        <v>2262</v>
+        <v>116</v>
       </c>
       <c r="G1224" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H1224" t="s">
         <v>4</v>
@@ -43099,7 +43105,7 @@
         <v>2264</v>
       </c>
       <c r="G1225" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1225" t="s">
         <v>4</v>
@@ -43157,7 +43163,7 @@
         <v>2268</v>
       </c>
       <c r="G1227" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H1227" t="s">
         <v>4</v>
@@ -43186,7 +43192,7 @@
         <v>2270</v>
       </c>
       <c r="G1228" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1228" t="s">
         <v>4</v>
@@ -43209,10 +43215,10 @@
         <v>1228</v>
       </c>
       <c r="E1229" t="s">
-        <v>233</v>
+        <v>2271</v>
       </c>
       <c r="F1229" t="s">
-        <v>234</v>
+        <v>2272</v>
       </c>
       <c r="G1229" t="n">
         <v>1</v>
@@ -43238,10 +43244,10 @@
         <v>1229</v>
       </c>
       <c r="E1230" t="s">
-        <v>2271</v>
+        <v>233</v>
       </c>
       <c r="F1230" t="s">
-        <v>2272</v>
+        <v>234</v>
       </c>
       <c r="G1230" t="n">
         <v>1</v>
@@ -43302,7 +43308,7 @@
         <v>2276</v>
       </c>
       <c r="G1232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1232" t="s">
         <v>4</v>
@@ -43331,7 +43337,7 @@
         <v>2278</v>
       </c>
       <c r="G1233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1233" t="s">
         <v>4</v>
@@ -43360,7 +43366,7 @@
         <v>2280</v>
       </c>
       <c r="G1234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1234" t="s">
         <v>4</v>
@@ -43383,13 +43389,13 @@
         <v>1234</v>
       </c>
       <c r="E1235" t="s">
-        <v>51</v>
+        <v>2281</v>
       </c>
       <c r="F1235" t="s">
-        <v>52</v>
+        <v>2282</v>
       </c>
       <c r="G1235" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H1235" t="s">
         <v>4</v>
@@ -43412,13 +43418,13 @@
         <v>1235</v>
       </c>
       <c r="E1236" t="s">
-        <v>2281</v>
+        <v>51</v>
       </c>
       <c r="F1236" t="s">
-        <v>2282</v>
+        <v>52</v>
       </c>
       <c r="G1236" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H1236" t="s">
         <v>4</v>
@@ -43528,13 +43534,13 @@
         <v>1239</v>
       </c>
       <c r="E1240" t="s">
-        <v>197</v>
+        <v>2289</v>
       </c>
       <c r="F1240" t="s">
-        <v>198</v>
+        <v>2290</v>
       </c>
       <c r="G1240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1240" t="s">
         <v>4</v>
@@ -43557,13 +43563,13 @@
         <v>1240</v>
       </c>
       <c r="E1241" t="s">
-        <v>2289</v>
+        <v>197</v>
       </c>
       <c r="F1241" t="s">
-        <v>2290</v>
+        <v>198</v>
       </c>
       <c r="G1241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1241" t="s">
         <v>4</v>
@@ -43592,7 +43598,7 @@
         <v>2292</v>
       </c>
       <c r="G1242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1242" t="s">
         <v>4</v>
@@ -43615,13 +43621,13 @@
         <v>1242</v>
       </c>
       <c r="E1243" t="s">
-        <v>201</v>
+        <v>2293</v>
       </c>
       <c r="F1243" t="s">
-        <v>202</v>
+        <v>2294</v>
       </c>
       <c r="G1243" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H1243" t="s">
         <v>4</v>
@@ -43644,13 +43650,13 @@
         <v>1243</v>
       </c>
       <c r="E1244" t="s">
-        <v>2293</v>
+        <v>201</v>
       </c>
       <c r="F1244" t="s">
-        <v>2294</v>
+        <v>202</v>
       </c>
       <c r="G1244" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H1244" t="s">
         <v>4</v>
@@ -43766,7 +43772,7 @@
         <v>2302</v>
       </c>
       <c r="G1248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1248" t="s">
         <v>4</v>
@@ -43795,7 +43801,7 @@
         <v>2304</v>
       </c>
       <c r="G1249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1249" t="s">
         <v>4</v>
@@ -43969,7 +43975,7 @@
         <v>2316</v>
       </c>
       <c r="G1255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1255" t="s">
         <v>4</v>
@@ -43998,7 +44004,7 @@
         <v>2318</v>
       </c>
       <c r="G1256" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1256" t="s">
         <v>4</v>
@@ -44027,7 +44033,7 @@
         <v>2320</v>
       </c>
       <c r="G1257" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1257" t="s">
         <v>4</v>
@@ -44056,7 +44062,7 @@
         <v>2322</v>
       </c>
       <c r="G1258" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1258" t="s">
         <v>4</v>
@@ -44085,7 +44091,7 @@
         <v>2324</v>
       </c>
       <c r="G1259" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1259" t="s">
         <v>4</v>
@@ -44143,7 +44149,7 @@
         <v>2328</v>
       </c>
       <c r="G1261" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1261" t="s">
         <v>4</v>
@@ -44172,7 +44178,7 @@
         <v>2330</v>
       </c>
       <c r="G1262" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1262" t="s">
         <v>4</v>
@@ -44201,7 +44207,7 @@
         <v>2332</v>
       </c>
       <c r="G1263" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1263" t="s">
         <v>4</v>
@@ -44601,10 +44607,10 @@
         <v>1276</v>
       </c>
       <c r="E1277" t="s">
-        <v>1131</v>
+        <v>2359</v>
       </c>
       <c r="F1277" t="s">
-        <v>1132</v>
+        <v>2360</v>
       </c>
       <c r="G1277" t="n">
         <v>1</v>
@@ -44630,10 +44636,10 @@
         <v>1277</v>
       </c>
       <c r="E1278" t="s">
-        <v>2359</v>
+        <v>1131</v>
       </c>
       <c r="F1278" t="s">
-        <v>2360</v>
+        <v>1132</v>
       </c>
       <c r="G1278" t="n">
         <v>1</v>
@@ -44659,13 +44665,13 @@
         <v>1278</v>
       </c>
       <c r="E1279" t="s">
-        <v>217</v>
+        <v>2361</v>
       </c>
       <c r="F1279" t="s">
-        <v>218</v>
+        <v>2362</v>
       </c>
       <c r="G1279" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H1279" t="s">
         <v>4</v>
@@ -44688,13 +44694,13 @@
         <v>1279</v>
       </c>
       <c r="E1280" t="s">
-        <v>1069</v>
+        <v>217</v>
       </c>
       <c r="F1280" t="s">
-        <v>1070</v>
+        <v>218</v>
       </c>
       <c r="G1280" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H1280" t="s">
         <v>4</v>
@@ -44717,13 +44723,13 @@
         <v>1280</v>
       </c>
       <c r="E1281" t="s">
-        <v>2361</v>
+        <v>1069</v>
       </c>
       <c r="F1281" t="s">
-        <v>2362</v>
+        <v>1070</v>
       </c>
       <c r="G1281" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1281" t="s">
         <v>4</v>
@@ -44833,13 +44839,13 @@
         <v>1284</v>
       </c>
       <c r="E1285" t="s">
-        <v>295</v>
+        <v>2369</v>
       </c>
       <c r="F1285" t="s">
-        <v>296</v>
+        <v>2370</v>
       </c>
       <c r="G1285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1285" t="s">
         <v>4</v>
@@ -44862,13 +44868,13 @@
         <v>1285</v>
       </c>
       <c r="E1286" t="s">
-        <v>2369</v>
+        <v>295</v>
       </c>
       <c r="F1286" t="s">
-        <v>2370</v>
+        <v>296</v>
       </c>
       <c r="G1286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1286" t="s">
         <v>4</v>
@@ -45065,13 +45071,13 @@
         <v>1292</v>
       </c>
       <c r="E1293" t="s">
-        <v>11</v>
+        <v>2383</v>
       </c>
       <c r="F1293" t="s">
-        <v>12</v>
+        <v>2384</v>
       </c>
       <c r="G1293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1293" t="s">
         <v>4</v>
@@ -45094,13 +45100,13 @@
         <v>1293</v>
       </c>
       <c r="E1294" t="s">
-        <v>2383</v>
+        <v>11</v>
       </c>
       <c r="F1294" t="s">
-        <v>2384</v>
+        <v>12</v>
       </c>
       <c r="G1294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1294" t="s">
         <v>4</v>
@@ -45129,7 +45135,7 @@
         <v>2386</v>
       </c>
       <c r="G1295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1295" t="s">
         <v>4</v>
@@ -45187,7 +45193,7 @@
         <v>2390</v>
       </c>
       <c r="G1297" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1297" t="s">
         <v>4</v>
@@ -45245,7 +45251,7 @@
         <v>2394</v>
       </c>
       <c r="G1299" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1299" t="s">
         <v>4</v>
@@ -45396,6 +45402,35 @@
         <v>4</v>
       </c>
       <c r="I1304" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:9">
+      <c r="A1305" s="1" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>1304</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>2406</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1305" t="n">
         <v>3</v>
       </c>
     </row>
